--- a/data/human/toc_woa.xlsx
+++ b/data/human/toc_woa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkennett/Documents/Github/LSR1_anhedonia_H/data/human/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7764D83-657F-E747-B969-52AE98F20E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420826B-147B-4255-A981-8D42E6A81A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="16890" windowHeight="8400" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
   <sheets>
     <sheet name="toc_woa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="289">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Flexible to week 7, then fixed</t>
   </si>
   <si>
-    <t>Ropi*role</t>
-  </si>
-  <si>
     <t>0.5 mg to 4 mg</t>
   </si>
   <si>
@@ -886,20 +883,17 @@
     <t>NI to 80mg</t>
   </si>
   <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
     <t>9.8</t>
+  </si>
+  <si>
+    <t>Ropinirole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1757,13 +1751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA754B-276C-D14C-B6A7-BF427E08ACB2}">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E117" zoomScale="160" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2134,7 +2128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2346,7 +2340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2399,7 +2393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2496,16 +2490,16 @@
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2611,7 +2605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2664,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2740,7 +2734,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="I19">
         <v>198</v>
@@ -2761,24 +2755,24 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" t="s">
         <v>70</v>
       </c>
-      <c r="P19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" t="s">
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2823,7 +2817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2876,9 +2870,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2893,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -2929,7 +2923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2973,21 +2967,21 @@
         <v>24</v>
       </c>
       <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s">
         <v>75</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -2999,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -3029,13 +3023,13 @@
         <v>19</v>
       </c>
       <c r="P24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
         <v>79</v>
       </c>
-      <c r="Q24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3082,18 +3076,18 @@
         <v>19</v>
       </c>
       <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" t="s">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -3123,7 +3117,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
@@ -3141,7 +3135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27">
         <v>111</v>
@@ -3176,7 +3170,7 @@
         <v>41.2</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" t="s">
         <v>23</v>
@@ -3185,24 +3179,24 @@
         <v>24</v>
       </c>
       <c r="O27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>87</v>
-      </c>
-      <c r="P27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3211,7 +3205,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -3229,7 +3223,7 @@
         <v>38.5</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
         <v>33</v>
@@ -3247,7 +3241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3270,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29">
         <v>122</v>
@@ -3282,7 +3276,7 @@
         <v>38.1</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
         <v>33</v>
@@ -3291,24 +3285,24 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" t="s">
         <v>93</v>
       </c>
-      <c r="Q29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3317,7 +3311,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -3335,7 +3329,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s">
         <v>33</v>
@@ -3353,7 +3347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3376,7 +3370,7 @@
         <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31">
         <v>150</v>
@@ -3388,7 +3382,7 @@
         <v>36.6</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
         <v>33</v>
@@ -3397,7 +3391,7 @@
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s">
         <v>19</v>
@@ -3406,9 +3400,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -3423,7 +3417,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -3459,7 +3453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3476,7 @@
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33">
         <v>36</v>
@@ -3503,39 +3497,39 @@
         <v>24</v>
       </c>
       <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
         <v>101</v>
-      </c>
-      <c r="P33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>102</v>
       </c>
       <c r="I34">
         <v>35</v>
@@ -3556,39 +3550,39 @@
         <v>24</v>
       </c>
       <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
         <v>103</v>
-      </c>
-      <c r="P34" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>104</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -3609,24 +3603,24 @@
         <v>24</v>
       </c>
       <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="P35" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3635,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>53</v>
@@ -3653,7 +3647,7 @@
         <v>37.4</v>
       </c>
       <c r="L36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M36" t="s">
         <v>33</v>
@@ -3671,7 +3665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3694,7 +3688,7 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37">
         <v>120</v>
@@ -3706,7 +3700,7 @@
         <v>35.9</v>
       </c>
       <c r="L37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s">
         <v>33</v>
@@ -3715,24 +3709,24 @@
         <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q37" t="s">
         <v>109</v>
       </c>
-      <c r="Q37" t="s">
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3741,13 +3735,13 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38">
         <v>68</v>
@@ -3774,10 +3768,10 @@
         <v>19</v>
       </c>
       <c r="Q38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -3830,15 +3824,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3847,7 +3841,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
         <v>53</v>
@@ -3883,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -3927,24 +3921,24 @@
         <v>55</v>
       </c>
       <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
         <v>119</v>
-      </c>
-      <c r="P41" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3953,7 +3947,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
         <v>53</v>
@@ -3980,16 +3974,16 @@
         <v>55</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4042,9 +4036,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -4059,7 +4053,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
         <v>40</v>
@@ -4077,7 +4071,7 @@
         <v>49</v>
       </c>
       <c r="L44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M44" t="s">
         <v>19</v>
@@ -4095,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4118,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>44</v>
@@ -4130,7 +4124,7 @@
         <v>43.9</v>
       </c>
       <c r="L45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M45" t="s">
         <v>33</v>
@@ -4139,24 +4133,24 @@
         <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>126</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -4165,10 +4159,10 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
@@ -4201,7 +4195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -4251,18 +4245,18 @@
         <v>19</v>
       </c>
       <c r="Q47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>129</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4304,10 +4298,10 @@
         <v>19</v>
       </c>
       <c r="Q48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -4357,12 +4351,12 @@
         <v>19</v>
       </c>
       <c r="Q49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -4374,16 +4368,16 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I50">
         <v>52</v>
@@ -4395,7 +4389,7 @@
         <v>36.4</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s">
         <v>33</v>
@@ -4404,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P50" t="s">
         <v>19</v>
@@ -4413,7 +4407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51">
         <v>23</v>
@@ -4448,7 +4442,7 @@
         <v>37.799999999999898</v>
       </c>
       <c r="L51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M51" t="s">
         <v>33</v>
@@ -4457,7 +4451,7 @@
         <v>19</v>
       </c>
       <c r="O51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P51" t="s">
         <v>19</v>
@@ -4466,7 +4460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -4501,7 +4495,7 @@
         <v>37.4</v>
       </c>
       <c r="L52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s">
         <v>33</v>
@@ -4519,12 +4513,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
         <v>139</v>
-      </c>
-      <c r="B53" t="s">
-        <v>140</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
@@ -4536,7 +4530,7 @@
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -4554,7 +4548,7 @@
         <v>51.9</v>
       </c>
       <c r="L53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s">
         <v>23</v>
@@ -4572,7 +4566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -4595,7 +4589,7 @@
         <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I54">
         <v>45</v>
@@ -4607,7 +4601,7 @@
         <v>52.4</v>
       </c>
       <c r="L54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M54" t="s">
         <v>23</v>
@@ -4616,39 +4610,39 @@
         <v>24</v>
       </c>
       <c r="O54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
         <v>145</v>
-      </c>
-      <c r="P54" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s">
-        <v>146</v>
       </c>
       <c r="I55">
         <v>40</v>
@@ -4660,7 +4654,7 @@
         <v>47.5</v>
       </c>
       <c r="L55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M55" t="s">
         <v>23</v>
@@ -4678,9 +4672,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
@@ -4731,7 +4725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -4754,7 +4748,7 @@
         <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I57">
         <v>119</v>
@@ -4775,39 +4769,39 @@
         <v>19</v>
       </c>
       <c r="O57" t="s">
+        <v>149</v>
+      </c>
+      <c r="P57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s">
         <v>150</v>
-      </c>
-      <c r="P57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s">
-        <v>151</v>
       </c>
       <c r="I58">
         <v>120</v>
@@ -4828,39 +4822,39 @@
         <v>19</v>
       </c>
       <c r="O58" t="s">
+        <v>151</v>
+      </c>
+      <c r="P58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s">
         <v>152</v>
-      </c>
-      <c r="P58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s">
-        <v>153</v>
       </c>
       <c r="I59">
         <v>120</v>
@@ -4881,7 +4875,7 @@
         <v>19</v>
       </c>
       <c r="O59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P59" t="s">
         <v>19</v>
@@ -4890,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -4913,7 +4907,7 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I60">
         <v>119</v>
@@ -4934,18 +4928,18 @@
         <v>19</v>
       </c>
       <c r="O60" t="s">
+        <v>154</v>
+      </c>
+      <c r="P60" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
         <v>155</v>
-      </c>
-      <c r="P60" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>156</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -4960,13 +4954,13 @@
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
         <v>53</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I61">
         <v>152</v>
@@ -4987,16 +4981,16 @@
         <v>24</v>
       </c>
       <c r="O61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5072,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I63">
         <v>150</v>
@@ -5093,33 +5087,33 @@
         <v>24</v>
       </c>
       <c r="O63" t="s">
+        <v>159</v>
+      </c>
+      <c r="P63" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
         <v>160</v>
       </c>
-      <c r="P63" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>161</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>162</v>
-      </c>
-      <c r="C64" t="s">
-        <v>163</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64" t="s">
         <v>53</v>
@@ -5155,7 +5149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65">
         <v>29</v>
@@ -5199,24 +5193,24 @@
         <v>24</v>
       </c>
       <c r="O65" t="s">
+        <v>164</v>
+      </c>
+      <c r="P65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
         <v>165</v>
-      </c>
-      <c r="P65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>166</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -5225,13 +5219,13 @@
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I66">
         <v>156</v>
@@ -5252,7 +5246,7 @@
         <v>24</v>
       </c>
       <c r="O66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P66" t="s">
         <v>19</v>
@@ -5261,7 +5255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5314,9 +5308,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -5328,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
         <v>171</v>
-      </c>
-      <c r="G68" t="s">
-        <v>172</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
@@ -5358,36 +5352,36 @@
         <v>19</v>
       </c>
       <c r="O68" t="s">
+        <v>172</v>
+      </c>
+      <c r="P68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" t="s">
         <v>173</v>
       </c>
-      <c r="P68" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q68" t="s">
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>175</v>
       </c>
       <c r="H69" t="s">
         <v>22</v>
@@ -5420,9 +5414,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -5473,7 +5467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5523,15 +5517,15 @@
         <v>19</v>
       </c>
       <c r="Q71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>178</v>
-      </c>
-      <c r="B72" t="s">
-        <v>179</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -5561,7 +5555,7 @@
         <v>57</v>
       </c>
       <c r="L72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s">
         <v>33</v>
@@ -5579,7 +5573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5614,7 +5608,7 @@
         <v>51</v>
       </c>
       <c r="L73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s">
         <v>33</v>
@@ -5623,21 +5617,21 @@
         <v>24</v>
       </c>
       <c r="O73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
         <v>182</v>
-      </c>
-      <c r="B74" t="s">
-        <v>183</v>
       </c>
       <c r="C74" t="s">
         <v>65</v>
@@ -5649,10 +5643,10 @@
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H74" t="s">
         <v>22</v>
@@ -5685,7 +5679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5708,7 +5702,7 @@
         <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I75">
         <v>134</v>
@@ -5729,21 +5723,21 @@
         <v>24</v>
       </c>
       <c r="O75" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" t="s">
         <v>185</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
         <v>186</v>
       </c>
-      <c r="Q75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" t="s">
-        <v>188</v>
       </c>
       <c r="C76" t="s">
         <v>65</v>
@@ -5755,10 +5749,10 @@
         <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H76" t="s">
         <v>22</v>
@@ -5791,7 +5785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -5814,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I77">
         <v>171</v>
@@ -5835,33 +5829,33 @@
         <v>24</v>
       </c>
       <c r="O77" t="s">
+        <v>188</v>
+      </c>
+      <c r="P77" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
         <v>189</v>
       </c>
-      <c r="P77" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
         <v>190</v>
-      </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" t="s">
-        <v>191</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
         <v>21</v>
@@ -5897,7 +5891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -5941,24 +5935,24 @@
         <v>24</v>
       </c>
       <c r="O79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P79" t="s">
         <v>34</v>
       </c>
       <c r="Q79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>195</v>
       </c>
       <c r="B80" t="s">
         <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -6003,7 +5997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -6050,18 +6044,18 @@
         <v>19</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s">
         <v>197</v>
-      </c>
-      <c r="B82" t="s">
-        <v>198</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -6076,7 +6070,7 @@
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H82" t="s">
         <v>26</v>
@@ -6088,10 +6082,10 @@
         <v>25</v>
       </c>
       <c r="K82" t="s">
+        <v>198</v>
+      </c>
+      <c r="L82" t="s">
         <v>199</v>
-      </c>
-      <c r="L82" t="s">
-        <v>200</v>
       </c>
       <c r="M82" t="s">
         <v>23</v>
@@ -6100,16 +6094,16 @@
         <v>24</v>
       </c>
       <c r="O82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>25</v>
       </c>
@@ -6141,10 +6135,10 @@
         <v>25</v>
       </c>
       <c r="K83" t="s">
+        <v>200</v>
+      </c>
+      <c r="L83" t="s">
         <v>201</v>
-      </c>
-      <c r="L83" t="s">
-        <v>202</v>
       </c>
       <c r="M83" t="s">
         <v>23</v>
@@ -6162,9 +6156,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
@@ -6194,10 +6188,10 @@
         <v>21</v>
       </c>
       <c r="K84" t="s">
+        <v>203</v>
+      </c>
+      <c r="L84" t="s">
         <v>204</v>
-      </c>
-      <c r="L84" t="s">
-        <v>205</v>
       </c>
       <c r="M84" t="s">
         <v>23</v>
@@ -6206,16 +6200,16 @@
         <v>24</v>
       </c>
       <c r="O84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -6247,10 +6241,10 @@
         <v>18</v>
       </c>
       <c r="K85" t="s">
+        <v>206</v>
+      </c>
+      <c r="L85" t="s">
         <v>207</v>
-      </c>
-      <c r="L85" t="s">
-        <v>208</v>
       </c>
       <c r="M85" t="s">
         <v>23</v>
@@ -6268,15 +6262,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
         <v>209</v>
-      </c>
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" t="s">
-        <v>210</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -6285,13 +6279,13 @@
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" t="s">
         <v>67</v>
       </c>
       <c r="H86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I86">
         <v>63</v>
@@ -6312,16 +6306,16 @@
         <v>24</v>
       </c>
       <c r="O86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6374,15 +6368,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -6391,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
@@ -6418,16 +6412,16 @@
         <v>24</v>
       </c>
       <c r="O88" t="s">
+        <v>215</v>
+      </c>
+      <c r="P88" t="s">
         <v>216</v>
       </c>
-      <c r="P88" t="s">
-        <v>217</v>
-      </c>
       <c r="Q88" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -6480,15 +6474,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -6500,7 +6494,7 @@
         <v>62</v>
       </c>
       <c r="G90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
@@ -6524,16 +6518,16 @@
         <v>24</v>
       </c>
       <c r="O90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q90" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -6586,12 +6580,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -6603,13 +6597,13 @@
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
       </c>
       <c r="H92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I92">
         <v>10</v>
@@ -6630,16 +6624,16 @@
         <v>24</v>
       </c>
       <c r="O92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -6692,9 +6686,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
         <v>29</v>
@@ -6712,7 +6706,7 @@
         <v>62</v>
       </c>
       <c r="G94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H94" t="s">
         <v>22</v>
@@ -6745,7 +6739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6777,7 +6771,7 @@
         <v>72</v>
       </c>
       <c r="K95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L95" t="s">
         <v>19</v>
@@ -6789,30 +6783,30 @@
         <v>24</v>
       </c>
       <c r="O95" t="s">
+        <v>227</v>
+      </c>
+      <c r="P95" t="s">
         <v>228</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" t="s">
         <v>229</v>
       </c>
-      <c r="Q95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
         <v>230</v>
-      </c>
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" t="s">
-        <v>231</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F96" t="s">
         <v>62</v>
@@ -6821,7 +6815,7 @@
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I96">
         <v>21</v>
@@ -6842,39 +6836,39 @@
         <v>24</v>
       </c>
       <c r="O96" t="s">
+        <v>233</v>
+      </c>
+      <c r="P96" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s">
         <v>234</v>
-      </c>
-      <c r="P96" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s">
-        <v>235</v>
       </c>
       <c r="I97">
         <v>21</v>
@@ -6895,16 +6889,16 @@
         <v>24</v>
       </c>
       <c r="O97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -6957,15 +6951,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -6988,8 +6982,8 @@
       <c r="J99">
         <v>69</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>288</v>
+      <c r="K99" s="2">
+        <v>40.200000000000003</v>
       </c>
       <c r="L99">
         <v>12.2</v>
@@ -7010,7 +7004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -7033,7 +7027,7 @@
         <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I100">
         <v>121</v>
@@ -7041,8 +7035,8 @@
       <c r="J100">
         <v>86</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>289</v>
+      <c r="K100" s="2">
+        <v>38.299999999999997</v>
       </c>
       <c r="L100">
         <v>11</v>
@@ -7054,16 +7048,16 @@
         <v>24</v>
       </c>
       <c r="O100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -7086,7 +7080,7 @@
         <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I101">
         <v>120</v>
@@ -7107,39 +7101,39 @@
         <v>24</v>
       </c>
       <c r="O101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
         <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
       </c>
       <c r="H102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I102" t="s">
         <v>19</v>
@@ -7160,16 +7154,16 @@
         <v>24</v>
       </c>
       <c r="O102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -7222,15 +7216,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -7275,7 +7269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -7298,7 +7292,7 @@
         <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I105">
         <v>21</v>
@@ -7319,16 +7313,16 @@
         <v>24</v>
       </c>
       <c r="O105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -7351,7 +7345,7 @@
         <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I106">
         <v>16</v>
@@ -7372,39 +7366,39 @@
         <v>24</v>
       </c>
       <c r="O106" t="s">
+        <v>246</v>
+      </c>
+      <c r="P106" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
         <v>247</v>
-      </c>
-      <c r="P106" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s">
-        <v>248</v>
       </c>
       <c r="I107">
         <v>17</v>
@@ -7425,18 +7419,18 @@
         <v>24</v>
       </c>
       <c r="O107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -7487,7 +7481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -7510,7 +7504,7 @@
         <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I109">
         <v>22</v>
@@ -7531,18 +7525,18 @@
         <v>24</v>
       </c>
       <c r="O109" t="s">
+        <v>249</v>
+      </c>
+      <c r="P109" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" t="s">
         <v>250</v>
-      </c>
-      <c r="P109" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>251</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
@@ -7557,7 +7551,7 @@
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G110" t="s">
         <v>21</v>
@@ -7584,7 +7578,7 @@
         <v>24</v>
       </c>
       <c r="O110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P110" t="s">
         <v>19</v>
@@ -7593,7 +7587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -7646,21 +7640,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B112" t="s">
         <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F112" t="s">
         <v>39</v>
@@ -7669,7 +7663,7 @@
         <v>21</v>
       </c>
       <c r="H112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I112">
         <v>10</v>
@@ -7681,7 +7675,7 @@
         <v>39.4</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M112" t="s">
         <v>23</v>
@@ -7690,7 +7684,7 @@
         <v>24</v>
       </c>
       <c r="O112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P112" t="s">
         <v>42</v>
@@ -7699,7 +7693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -7752,9 +7746,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
@@ -7802,10 +7796,10 @@
         <v>19</v>
       </c>
       <c r="Q114" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -7849,18 +7843,18 @@
         <v>24</v>
       </c>
       <c r="O115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P115" t="s">
         <v>19</v>
       </c>
       <c r="Q115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
@@ -7902,7 +7896,7 @@
         <v>24</v>
       </c>
       <c r="O116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P116" t="s">
         <v>19</v>
@@ -7911,7 +7905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -7964,12 +7958,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -8008,16 +8002,16 @@
         <v>24</v>
       </c>
       <c r="O118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q118" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -8070,9 +8064,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
         <v>19</v>
@@ -8087,7 +8081,7 @@
         <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
@@ -8114,16 +8108,16 @@
         <v>24</v>
       </c>
       <c r="O120" t="s">
+        <v>261</v>
+      </c>
+      <c r="P120" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q120" t="s">
         <v>262</v>
       </c>
-      <c r="P120" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -8176,9 +8170,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -8199,7 +8193,7 @@
         <v>40</v>
       </c>
       <c r="H122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I122">
         <v>63</v>
@@ -8220,16 +8214,16 @@
         <v>24</v>
       </c>
       <c r="O122" t="s">
+        <v>265</v>
+      </c>
+      <c r="P122" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q122" t="s">
         <v>266</v>
       </c>
-      <c r="P122" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -8282,9 +8276,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
@@ -8305,7 +8299,7 @@
         <v>53</v>
       </c>
       <c r="H124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I124">
         <v>16</v>
@@ -8326,16 +8320,16 @@
         <v>24</v>
       </c>
       <c r="O124" t="s">
+        <v>269</v>
+      </c>
+      <c r="P124" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q124" t="s">
         <v>270</v>
       </c>
-      <c r="P124" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -8388,9 +8382,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
@@ -8405,13 +8399,13 @@
         <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G126" t="s">
         <v>21</v>
       </c>
       <c r="H126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
@@ -8432,16 +8426,16 @@
         <v>24</v>
       </c>
       <c r="O126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P126" t="s">
         <v>19</v>
       </c>
       <c r="Q126" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>25</v>
       </c>
